--- a/Task Manager - Report Outline.xlsx
+++ b/Task Manager - Report Outline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ProjectReports\Reference\Sample_past_reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FinalProject\CampusMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC64C455-0837-45B6-AFF1-2A02D834974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A975D77-1ECD-40A8-8984-F903D06B7E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>Part1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Interface Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Development Strategy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,14 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Communication Protocols and Server Development</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Persistence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Part5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>System Use Case Diagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Contents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UML DIAGRAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tool Used</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,18 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Activity Diagram, Sequecen Diagram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ER, Table Design</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Documented use cases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    - Functional Requirements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Event of flow-Select use case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Noun and Verb Analysis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,19 +170,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> CRC analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ref</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event of flow-Select use case * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity Diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diagrams of system design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Different Users : how to use the website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Sequence Diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Component Diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Deployment Diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How and in what order a group of objects works together</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implementation view of a system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shows the execution architecture of a system, including nodes such as hardware or software execution environments, and the middleware connecting them</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -State Diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">You use state diagrams to illustrate the dynamic view of a system. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Validation and Testing</t>
+  </si>
+  <si>
+    <t>Requirements evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Limitation and future development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conclusions and Summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER, Table Design and attribute explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Case Diagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documented use cases scenarios</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nouns usually indicate the classes in the system, and responsibilities can be found by identifying the verbs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9.4</t>
+  </si>
+  <si>
+    <t>4.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product Perspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -User Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Hardware Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    -Software Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.10.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.10.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,13 +408,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -288,6 +469,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -568,220 +754,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="51.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>44</v>
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8"/>
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="7" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D22" s="1" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="C26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D26" s="1" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D27" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>20</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Task Manager - Report Outline.xlsx
+++ b/Task Manager - Report Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FinalProject\CampusMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A975D77-1ECD-40A8-8984-F903D06B7E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E7793B-FB25-4961-B10C-7DC9CFA01DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
   <si>
     <t>Part1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -855,6 +855,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>31</v>
       </c>

--- a/Task Manager - Report Outline.xlsx
+++ b/Task Manager - Report Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FinalProject\CampusMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E7793B-FB25-4961-B10C-7DC9CFA01DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEC91A1-719A-4F73-AB96-198EE3B6B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>Part1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <t>√</t>
   </si>
   <si>
-    <t xml:space="preserve">MVC </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Like database relationship</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +374,26 @@
   </si>
   <si>
     <t xml:space="preserve"> -3.10.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Server Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Client Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model View Controller (MVC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Application Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -754,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,7 +792,7 @@
         <v>21</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>20</v>
@@ -812,13 +828,13 @@
         <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -826,7 +842,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
@@ -837,10 +853,10 @@
         <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -848,10 +864,10 @@
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,16 +875,16 @@
         <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -882,275 +898,296 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>61</v>
+      <c r="A14" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>38</v>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>65</v>
+      <c r="D16" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>47</v>
+        <v>60</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C24" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
       <c r="C26" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="5" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="6" t="s">
+      <c r="D36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="1" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Task Manager - Report Outline.xlsx
+++ b/Task Manager - Report Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FinalProject\CampusMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEC91A1-719A-4F73-AB96-198EE3B6B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E44EC-7F42-4DA0-9D17-C7641EE15206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Task Manager - Report Outline.xlsx
+++ b/Task Manager - Report Outline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FinalProject\CampusMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E44EC-7F42-4DA0-9D17-C7641EE15206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A2163-F5F1-4893-B9BD-938B8658E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>Part1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t xml:space="preserve">  -Application Architecture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Overview</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manage Users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -841,352 +853,375 @@
       <c r="A6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="D7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="C11" s="5" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="6" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" s="1" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" s="1" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D27" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="6" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="6" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="7" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="6" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="C33" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="6" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="6" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Task Manager - Report Outline.xlsx
+++ b/Task Manager - Report Outline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FinalProject\CampusMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A2163-F5F1-4893-B9BD-938B8658E148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA5551-846F-41EB-819A-A62BEB1DA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="96">
   <si>
     <t>Part1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>User Interface</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Part5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +401,14 @@
   </si>
   <si>
     <t>Manage Users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Bootstrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  -Jqurey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,19 +805,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -837,33 +841,33 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="D7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -874,10 +878,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -885,41 +889,41 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -933,7 +937,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -941,217 +945,217 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C31" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C34" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C36" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -1167,62 +1171,69 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="6" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="D45" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D43" s="1" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D44" s="1" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Task Manager - Report Outline.xlsx
+++ b/Task Manager - Report Outline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FinalProject\CampusMarket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BA5551-846F-41EB-819A-A62BEB1DA088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E85B3C-6056-4766-BA5C-80595EFACBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -505,7 +505,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -786,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,368 +870,362 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="C13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="C15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>34</v>
+        <v>64</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>39</v>
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
       <c r="C31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="7" t="s">
-        <v>51</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C32" s="6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
       <c r="C33" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C34" s="6" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
+      <c r="D38" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D41" s="1" t="s">
-        <v>95</v>
+      <c r="C41" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="6" t="s">
-        <v>77</v>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C44" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D46" s="1" t="s">
-        <v>47</v>
+      <c r="D45" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D47" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="5" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>49</v>
       </c>
     </row>
